--- a/example data/Column Key.xlsx
+++ b/example data/Column Key.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ansleybr\Documents\GitHub\spectral-prediciton-of-salinity-glmulti\example data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{446D6478-664F-428B-AF7A-7AB37B04DB80}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53328156-7777-475A-A7CA-E72746B1447C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{898701CE-AD9D-44D7-9BAE-DDE9516B824E}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{898701CE-AD9D-44D7-9BAE-DDE9516B824E}"/>
   </bookViews>
   <sheets>
     <sheet name="Key definitions" sheetId="2" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="279" uniqueCount="115">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="282" uniqueCount="120">
   <si>
     <t>fidu</t>
   </si>
@@ -316,15 +316,6 @@
     <t>ET type predicted</t>
   </si>
   <si>
-    <t>actual crop ET (ETa)</t>
-  </si>
-  <si>
-    <t>tall-crop reference ET (ETr) derived from ASCE Penman-Monteith</t>
-  </si>
-  <si>
-    <t>Between X and X days after planting</t>
-  </si>
-  <si>
     <t>Crop water stress index (https://doi.org/10.1007/s00271-020-00668-1)</t>
   </si>
   <si>
@@ -380,6 +371,30 @@
   </si>
   <si>
     <t>cm</t>
+  </si>
+  <si>
+    <t>Between 0 and 30 days after planting</t>
+  </si>
+  <si>
+    <t>Between 30 and 70 days after planting</t>
+  </si>
+  <si>
+    <t>Between 70 and 120 days after planting</t>
+  </si>
+  <si>
+    <t>Between 120 and 170 days after planting</t>
+  </si>
+  <si>
+    <t>Actual</t>
+  </si>
+  <si>
+    <t>Actual crop ET (ETa), including plant stress impacts, derived from the ReSET model</t>
+  </si>
+  <si>
+    <t>Crop ET without the impacts of plant stress (Etc), derived from weather station data</t>
+  </si>
+  <si>
+    <t>tall-crop reference ET (ETr) derived from ASCE Penman-Monteith (no stress; fully irrigated, etc.), derived from weather station data</t>
   </si>
 </sst>
 </file>
@@ -417,18 +432,12 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -452,10 +461,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" indent="1"/>
     </xf>
@@ -777,16 +785,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{82939889-EFD5-433A-9A62-03CE5E050EC8}">
-  <dimension ref="A1:C17"/>
+  <dimension ref="A1:C18"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B13" sqref="B13:B14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="19.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.85546875" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="133.28515625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -802,12 +810,12 @@
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
-        <v>97</v>
+      <c r="A2" s="3" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
+      <c r="A3" s="2" t="s">
         <v>58</v>
       </c>
       <c r="B3" t="s">
@@ -818,7 +826,7 @@
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
+      <c r="A4" s="2" t="s">
         <v>60</v>
       </c>
       <c r="B4" t="s">
@@ -829,18 +837,18 @@
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" s="3" t="s">
+      <c r="A5" s="2" t="s">
         <v>66</v>
       </c>
       <c r="B5" t="s">
         <v>89</v>
       </c>
       <c r="C5" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" s="3" t="s">
+      <c r="A6" s="2" t="s">
         <v>61</v>
       </c>
       <c r="B6" t="s">
@@ -851,107 +859,118 @@
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" s="4" t="s">
-        <v>98</v>
+      <c r="A7" s="3" t="s">
+        <v>95</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
         <v>62</v>
       </c>
       <c r="B8" t="s">
         <v>91</v>
       </c>
-      <c r="C8" s="2" t="s">
-        <v>95</v>
+      <c r="C8" t="s">
+        <v>112</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="A9" s="2" t="s">
         <v>63</v>
       </c>
       <c r="B9" t="s">
         <v>91</v>
       </c>
-      <c r="C9" s="2" t="s">
-        <v>95</v>
+      <c r="C9" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" s="3" t="s">
+      <c r="A10" s="2" t="s">
         <v>64</v>
       </c>
       <c r="B10" t="s">
         <v>91</v>
       </c>
-      <c r="C10" s="2" t="s">
-        <v>95</v>
+      <c r="C10" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" s="3" t="s">
+      <c r="A11" s="2" t="s">
         <v>65</v>
       </c>
       <c r="B11" t="s">
         <v>91</v>
       </c>
-      <c r="C11" s="2" t="s">
-        <v>95</v>
+      <c r="C11" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" s="4" t="s">
+      <c r="A12" s="3" t="s">
         <v>92</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" s="3" t="s">
+      <c r="A13" s="2" t="s">
+        <v>116</v>
+      </c>
+      <c r="B13" t="s">
+        <v>111</v>
+      </c>
+      <c r="C13" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="B13" t="s">
-        <v>114</v>
-      </c>
-      <c r="C13" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" s="3" t="s">
+      <c r="B14" t="s">
+        <v>111</v>
+      </c>
+      <c r="C14" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="B14" t="s">
-        <v>114</v>
-      </c>
-      <c r="C14" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" s="5" t="s">
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+      <c r="C15" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="4" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" s="3" t="s">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="2" t="s">
         <v>54</v>
-      </c>
-      <c r="B16" t="e">
-        <f>NA()</f>
-        <v>#N/A</v>
-      </c>
-      <c r="C16" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" s="3" t="s">
-        <v>56</v>
       </c>
       <c r="B17" t="e">
         <f>NA()</f>
         <v>#N/A</v>
       </c>
       <c r="C17" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="2" t="s">
+        <v>56</v>
+      </c>
+      <c r="B18" t="e">
+        <f>NA()</f>
+        <v>#N/A</v>
+      </c>
+      <c r="C18" t="s">
         <v>57</v>
       </c>
     </row>
@@ -964,8 +983,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3873CE25-C887-47AC-9AA0-6DA237F7AF64}">
   <dimension ref="A1:F54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E15" sqref="E15"/>
+    <sheetView topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -990,7 +1009,7 @@
         <v>74</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E1" s="1" t="s">
         <v>75</v>
@@ -1024,7 +1043,7 @@
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="B3" t="s">
         <v>81</v>
@@ -1047,7 +1066,7 @@
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="B4" t="s">
         <v>82</v>
@@ -1289,13 +1308,13 @@
         <v>11</v>
       </c>
       <c r="B17" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C17" t="s">
         <v>68</v>
       </c>
       <c r="D17" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E17" t="s">
         <v>69</v>
@@ -1306,13 +1325,13 @@
         <v>12</v>
       </c>
       <c r="B18" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C18" t="s">
         <v>62</v>
       </c>
       <c r="D18" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E18" t="s">
         <v>69</v>
@@ -1323,13 +1342,13 @@
         <v>13</v>
       </c>
       <c r="B19" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C19" t="s">
         <v>63</v>
       </c>
       <c r="D19" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E19" t="s">
         <v>69</v>
@@ -1340,13 +1359,13 @@
         <v>14</v>
       </c>
       <c r="B20" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C20" t="s">
         <v>64</v>
       </c>
       <c r="D20" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E20" t="s">
         <v>69</v>
@@ -1357,13 +1376,13 @@
         <v>15</v>
       </c>
       <c r="B21" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C21" t="s">
         <v>65</v>
       </c>
       <c r="D21" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E21" t="s">
         <v>69</v>
@@ -1391,13 +1410,13 @@
         <v>19</v>
       </c>
       <c r="B23" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C23" t="s">
         <v>68</v>
       </c>
       <c r="D23" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E23" t="s">
         <v>69</v>
@@ -1408,13 +1427,13 @@
         <v>20</v>
       </c>
       <c r="B24" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="C24" t="s">
         <v>62</v>
       </c>
       <c r="D24" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E24" t="s">
         <v>69</v>
@@ -1425,13 +1444,13 @@
         <v>21</v>
       </c>
       <c r="B25" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="C25" t="s">
         <v>63</v>
       </c>
       <c r="D25" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E25" t="s">
         <v>69</v>
@@ -1442,13 +1461,13 @@
         <v>22</v>
       </c>
       <c r="B26" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="C26" t="s">
         <v>64</v>
       </c>
       <c r="D26" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E26" t="s">
         <v>69</v>
@@ -1459,13 +1478,13 @@
         <v>23</v>
       </c>
       <c r="B27" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C27" t="s">
         <v>65</v>
       </c>
       <c r="D27" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E27" t="s">
         <v>69</v>
@@ -1476,13 +1495,13 @@
         <v>24</v>
       </c>
       <c r="B28" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="C28" t="s">
         <v>68</v>
       </c>
       <c r="D28" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E28" t="s">
         <v>69</v>
@@ -1493,13 +1512,13 @@
         <v>25</v>
       </c>
       <c r="B29" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="C29" t="s">
         <v>68</v>
       </c>
       <c r="D29" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="E29" t="s">
         <v>69</v>
@@ -1680,13 +1699,13 @@
         <v>36</v>
       </c>
       <c r="B40" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="C40" t="s">
         <v>68</v>
       </c>
       <c r="D40" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E40" t="s">
         <v>70</v>
@@ -1697,13 +1716,13 @@
         <v>37</v>
       </c>
       <c r="B41" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C41" t="s">
         <v>62</v>
       </c>
       <c r="D41" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E41" t="s">
         <v>70</v>
@@ -1714,13 +1733,13 @@
         <v>38</v>
       </c>
       <c r="B42" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C42" t="s">
         <v>63</v>
       </c>
       <c r="D42" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E42" t="s">
         <v>70</v>
@@ -1731,13 +1750,13 @@
         <v>39</v>
       </c>
       <c r="B43" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C43" t="s">
         <v>64</v>
       </c>
       <c r="D43" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E43" t="s">
         <v>70</v>
@@ -1748,13 +1767,13 @@
         <v>40</v>
       </c>
       <c r="B44" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C44" t="s">
         <v>65</v>
       </c>
       <c r="D44" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E44" t="s">
         <v>70</v>
@@ -1771,7 +1790,7 @@
         <v>68</v>
       </c>
       <c r="D45" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E45" t="s">
         <v>70</v>
@@ -1788,7 +1807,7 @@
         <v>62</v>
       </c>
       <c r="D46" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E46" t="s">
         <v>70</v>
@@ -1805,7 +1824,7 @@
         <v>63</v>
       </c>
       <c r="D47" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E47" t="s">
         <v>70</v>
@@ -1822,7 +1841,7 @@
         <v>64</v>
       </c>
       <c r="D48" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E48" t="s">
         <v>70</v>
@@ -1839,7 +1858,7 @@
         <v>65</v>
       </c>
       <c r="D49" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="E49" t="s">
         <v>70</v>
@@ -1856,7 +1875,7 @@
         <v>68</v>
       </c>
       <c r="D50" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E50" t="s">
         <v>70</v>
@@ -1873,7 +1892,7 @@
         <v>62</v>
       </c>
       <c r="D51" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E51" t="s">
         <v>70</v>
@@ -1890,7 +1909,7 @@
         <v>63</v>
       </c>
       <c r="D52" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E52" t="s">
         <v>70</v>
@@ -1907,7 +1926,7 @@
         <v>64</v>
       </c>
       <c r="D53" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E53" t="s">
         <v>70</v>
@@ -1924,7 +1943,7 @@
         <v>65</v>
       </c>
       <c r="D54" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E54" t="s">
         <v>70</v>
